--- a/SystemMailTrackingProduction/Files/SessionSuite_Prod.xlsx
+++ b/SystemMailTrackingProduction/Files/SessionSuite_Prod.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1372CAAD-BCD3-49DB-8851-3767AB6D99CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C411D78-3BC4-4284-8DDB-EECB97A300BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="3024" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
   <si>
     <t>TCID</t>
   </si>
@@ -253,9 +253,6 @@
     <t>RFAdminlogin</t>
   </si>
   <si>
-    <t>deleteTrialuserTest</t>
-  </si>
-  <si>
     <t>deletepaiduserTest</t>
   </si>
   <si>
@@ -268,15 +265,6 @@
     <t>Enter valid credential and login to application as RF Admin</t>
   </si>
   <si>
-    <t>Login to RF Application</t>
-  </si>
-  <si>
-    <t>Verify recently added trial user is deleted.</t>
-  </si>
-  <si>
-    <t>deleteTrialuser</t>
-  </si>
-  <si>
     <t>Login to application</t>
   </si>
   <si>
@@ -292,9 +280,6 @@
     <t>rapid1234*</t>
   </si>
   <si>
-    <t>Autonewuser1@mailinator.com</t>
-  </si>
-  <si>
     <t>deletePaiduserTest</t>
   </si>
   <si>
@@ -304,10 +289,22 @@
     <t>9658877498</t>
   </si>
   <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Test Production ABC's</t>
+    <t>xponoacc@gmail.com</t>
+  </si>
+  <si>
+    <t>GmailUrl</t>
+  </si>
+  <si>
+    <t>GmailPassword</t>
+  </si>
+  <si>
+    <t>password@12</t>
+  </si>
+  <si>
+    <t>exponoacc@gmail.com</t>
+  </si>
+  <si>
+    <t>rf123456!</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,18 +405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -479,34 +470,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -515,7 +478,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -562,14 +525,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -909,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,14 +934,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -992,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E49"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,13 +993,13 @@
         <v>77</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="28"/>
     </row>
@@ -1059,7 +1008,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>77</v>
@@ -1219,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1262,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1368,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -1537,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="31"/>
     </row>
@@ -1546,7 +1495,7 @@
         <v>78</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>77</v>
@@ -1558,97 +1507,21 @@
       <c r="A42" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="B42" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="33"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1658,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,22 +1545,22 @@
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="28.21875" customWidth="1"/>
     <col min="6" max="6" width="29.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="22.21875" customWidth="1"/>
     <col min="10" max="10" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" customWidth="1"/>
     <col min="12" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +1577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1712,22 +1585,22 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1761,12 +1634,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1785,8 +1658,11 @@
       <c r="F10" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1800,18 +1676,21 @@
         <v>58</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1848,8 +1727,11 @@
       <c r="L14" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1748,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>18</v>
@@ -1875,7 +1757,7 @@
         <v>18</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
         <v>74</v>
@@ -1885,6 +1767,9 @@
       </c>
       <c r="L15" s="6" t="s">
         <v>76</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1950,7 +1835,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>18</v>
@@ -1974,23 +1859,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2001,49 +1883,20 @@
         <v>13</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="L15" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C27" r:id="rId3" xr:uid="{8AF8301C-C5EE-474C-B985-A763CDBD41B9}"/>
-    <hyperlink ref="C23" r:id="rId4" xr:uid="{4E773E7C-CDDB-4088-9A3D-ED687B57C1B6}"/>
-    <hyperlink ref="F15" r:id="rId5" xr:uid="{1D66648D-9A3A-4945-AB7C-7A7EF2C834E5}"/>
-    <hyperlink ref="F19" r:id="rId6" xr:uid="{4E4BCED4-3F9B-4222-AF16-A3A716C7EB64}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{8AF8301C-C5EE-474C-B985-A763CDBD41B9}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{1D66648D-9A3A-4945-AB7C-7A7EF2C834E5}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{4E4BCED4-3F9B-4222-AF16-A3A716C7EB64}"/>
+    <hyperlink ref="M15" r:id="rId6" display="password@12" xr:uid="{DB14C347-5DE2-407F-896D-CD310374FA8F}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{38E760EB-2FA2-41D9-B6B6-ADF5A77D087C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/SystemMailTrackingProduction/Files/SessionSuite_Prod.xlsx
+++ b/SystemMailTrackingProduction/Files/SessionSuite_Prod.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C411D78-3BC4-4284-8DDB-EECB97A300BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BBD5561F-E2E6-4423-BF51-4DBFF22B27B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="3024" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
   <si>
     <t>TCID</t>
   </si>
@@ -289,22 +289,28 @@
     <t>9658877498</t>
   </si>
   <si>
-    <t>xponoacc@gmail.com</t>
-  </si>
-  <si>
     <t>GmailUrl</t>
   </si>
   <si>
     <t>GmailPassword</t>
   </si>
   <si>
-    <t>password@12</t>
+    <t>rapidfunnel1</t>
   </si>
   <si>
     <t>exponoacc@gmail.com</t>
   </si>
   <si>
     <t>rf123456!</t>
+  </si>
+  <si>
+    <t>sanjeev_07iit@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>YahooPassword</t>
+  </si>
+  <si>
+    <t>YahoomailUrl</t>
   </si>
 </sst>
 </file>
@@ -943,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1211,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1317,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -1534,7 +1540,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,7 +1665,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1676,13 +1682,13 @@
         <v>58</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1728,7 +1734,7 @@
         <v>73</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.3">
@@ -1748,7 +1754,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>18</v>
@@ -1769,7 +1775,7 @@
         <v>76</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1894,7 +1900,7 @@
     <hyperlink ref="F15" r:id="rId4" xr:uid="{1D66648D-9A3A-4945-AB7C-7A7EF2C834E5}"/>
     <hyperlink ref="F19" r:id="rId5" xr:uid="{4E4BCED4-3F9B-4222-AF16-A3A716C7EB64}"/>
     <hyperlink ref="M15" r:id="rId6" display="password@12" xr:uid="{DB14C347-5DE2-407F-896D-CD310374FA8F}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{38E760EB-2FA2-41D9-B6B6-ADF5A77D087C}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{828EC626-3BA5-4106-8F33-9A5F3E6B5954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
